--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\ccs\BFoCPAbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CEDAB4-A978-409D-9C38-44D958D1B642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66353836-709C-4B35-A085-241A8A7E5919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="25020" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BFoCPAbS" sheetId="12" r:id="rId2"/>
+    <sheet name="Global CCS Database" sheetId="13" r:id="rId2"/>
+    <sheet name="BAU Calculations" sheetId="14" r:id="rId3"/>
+    <sheet name="BFoCPAbS" sheetId="12" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Global CCS Database'!$A$7:$H$36</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t>Source:</t>
   </si>
@@ -100,16 +127,380 @@
   </si>
   <si>
     <t xml:space="preserve"> dimensionless (fraction of potential achieved)</t>
+  </si>
+  <si>
+    <t>Facility Name</t>
+  </si>
+  <si>
+    <t>Facility Category</t>
+  </si>
+  <si>
+    <t>Facility Status</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Facility Industry</t>
+  </si>
+  <si>
+    <t>Facility Short Description</t>
+  </si>
+  <si>
+    <t>Pilot and demonstration CCS facilities</t>
+  </si>
+  <si>
+    <t>Natural Gas Processing</t>
+  </si>
+  <si>
+    <t>Power Generation</t>
+  </si>
+  <si>
+    <t>Filtered to include only:</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Large-scale facilities, pilot and demonstration facilities</t>
+  </si>
+  <si>
+    <t>Early development, advanced development, operational, operating (not "completed," which means it is no longer sequestering CO2)</t>
+  </si>
+  <si>
+    <t>Air Products Steam Methane Reformer</t>
+  </si>
+  <si>
+    <t>Large-scale CCS facilities</t>
+  </si>
+  <si>
+    <t>Operating</t>
+  </si>
+  <si>
+    <t>Hydrogen Production</t>
+  </si>
+  <si>
+    <t>Air Products retrofitted each of its two steam methane reformers SMRs, located within an existing refinery at Port Arthur, Texas, to separate CO2 from the process gas stream. Carbon dioxide capture capacity is at around 1 Mtpa when both plants are fully operational. The captured CO2 is transported to oil fields in Texas for enhanced oil recovery. More than 4 million tonnes of CO2 has been captured since the facilities became operational in 2013.</t>
+  </si>
+  <si>
+    <t>Arkalon CO2 Compression Facility</t>
+  </si>
+  <si>
+    <t>Ethanol Production</t>
+  </si>
+  <si>
+    <t>Chaparral Energy owns and operates a CO2 compression and processing facility at the Arkalon Energy ethanol plant in Kansas, US. In 2015, approximately 190,000 tonnes of CO2 from this source was used for enhanced oil recovery purposes at the Booker and Farnsworth Oil Units in Texas both of which are operated by Chaparral Energy.</t>
+  </si>
+  <si>
+    <t>Core Energy CO2-EOR</t>
+  </si>
+  <si>
+    <t>Core Energy has been operating a CO2-EOR program in Otsego County, Michigan, since 2003.  The CO2 is sourced from a gas processing facility that removes CO2 produced from the Antrim shale gas fields. Core Energy captures around 350,000 tonnes of CO2 out of an estimated total produced CO2 of around 500,000 tonnes. Core Energy reports that as of end 2016, its CO2-EOR operations had injected over two million tonnes of CO2.</t>
+  </si>
+  <si>
+    <t>PCS Nitrogen</t>
+  </si>
+  <si>
+    <t>Fertiliser Production</t>
+  </si>
+  <si>
+    <t>Denbury Resources sources CO2 from an industrial facility in Louisiana, United States, to support its CO2-EOR operations in the Gulf Coast region. Capture began in 2013 and the Institute estimates that annual uptake is in the range of 200,000 to 300,000 tonnes of CO2 per annum.</t>
+  </si>
+  <si>
+    <t>Illinois Industrial Carbon Capture and Storage</t>
+  </si>
+  <si>
+    <t>Illinois Industrial CCS integrates new build compression and dehydration facilities to an existing corn-to-ethanol plant in Decatur, Illinois. The new facilities, when combined with existing facilities constructed under the now completed Illinois Basin Decatur Project, can achieve a total CO2 injection capacity of approximately 1 Mtpa. Injection operations commenced in April 2017. The captured CO2 is transported to a nearby injection well for dedicated geological storage.</t>
+  </si>
+  <si>
+    <t>NET Power Clean Energy Large-scale Pilot Plant</t>
+  </si>
+  <si>
+    <t>In 2016, NET Power LLC commenced construction on a 50 MWth 25 MWe first-of-a-kind natural gas-fired power plant located near Houston, Texas, in order to test at large pilot-scale NET Power’s proprietary Allam Cycle Technology which uses CO2 as a working fluid in an oxy-fuel, supercritical CO2 power cycle to generate electricity. In March 2018, Net Power has announced that it has successfully fired up its natural-gas plant.</t>
+  </si>
+  <si>
+    <t>Lake Charles Methanol</t>
+  </si>
+  <si>
+    <t>Advanced Development</t>
+  </si>
+  <si>
+    <t>2022 (Institute estimate)</t>
+  </si>
+  <si>
+    <t>Chemical Production</t>
+  </si>
+  <si>
+    <t>Lake Charles Methanol is a proposed gasification facility in Louisiana, planning to capture over 4 Mtpa of CO2 from synthetic gas syngas. The syngas to be further converted to make methanol and other products would be produced during the conversion of petroleum coke sourced from oil refineries in the Gulf Coast region. The captured CO2 would most likely be used in Denbury Resources enhanced oil recovery assets in the Houston area, Texas. The Institute estimates an operations date of 2022.</t>
+  </si>
+  <si>
+    <t>OXY and White Energy Ethanol EOR Facility</t>
+  </si>
+  <si>
+    <t>Early Development</t>
+  </si>
+  <si>
+    <t>Occidental Petroleum Corporation and White Energy proposes to capture CO2 from White Energy’s two ethanol facilities in Hereford and Plainview, Texas. The captured CO2 will be stored via EOR operations at Occidental’s oil fields in Permian Basin.</t>
+  </si>
+  <si>
+    <t>OXY and Carbon Engineering Direct Air Capture and EOR Facility</t>
+  </si>
+  <si>
+    <t>middle 2020s</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Oxy Low Carbon Ventures, LLC and Carbon Engineering proposes a joint project of the world’s largest DAC and sequestration facility, with a capacity of 0.5 million tonnes per annum (Mtpa) CO2 capture capacity. The captured CO2 is planned to be used in Occidental’s EOR operations in the Permian Basin.</t>
+  </si>
+  <si>
+    <t>Petra Nova Carbon Capture</t>
+  </si>
+  <si>
+    <t>Petra Nova Carbon Capture, operational since January 2017, is the worlds largest post-combustion CO2 capture system presently in operation. Production unit 8 of the W. A. Parish power plant near Houston, Texas, was retrofitted with a 1.4 Mtpa post-combustion CO2 capture facility. The captured CO2 is transported via pipeline to an oil field near Houston for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Bonanza BioEnergy CCUS EOR</t>
+  </si>
+  <si>
+    <t>PetroSantander, Inc. owns and operates the dehydration, compression, transport and CO2 injection sites for CO2 sourced from the Bonanza BioEnergy ethanol plant in Kansas, US. The project began operation in 2012 and captures approximately 100,000 tonnes of CO2 annually, which is used for enhanced oil recovery purposes in the nearby Stewart oil field.</t>
+  </si>
+  <si>
+    <t>Project ECO2S: Early CO2 Storage Complex in Kemper County</t>
+  </si>
+  <si>
+    <t>Under evaluation</t>
+  </si>
+  <si>
+    <t>Project ECO2S aims to establish a CO2 storage site with a storage capacity of approximately one billion metric tons in a 12,000-hectare storage complex near the Kemper County Energy Facility in Kemper County, Mississippi which could serve as a regional CO2 storage hub for regional power and industrial CO2 point sources.</t>
+  </si>
+  <si>
+    <t>Dry Fork Integrated Commercial Carbon Capture and Storage (CCS)</t>
+  </si>
+  <si>
+    <t>The Basin Electric Power Cooperative aims to capture 3.0 Mtpa CO2 from the 385 MW Dry Fork coal-fired power station in Wyoming, USA. They are targeting adjacent geological storage formations currently being studied by Wyoming CarbonSAFE. The Cooperative is also considering EOR as a potential CO2 storage pathway, utilising nearby CO2 pipeline networks and EOR operations.</t>
+  </si>
+  <si>
+    <t>Bell Creek - Incidental CO2 Storage Associated with a Commercial EOR Project</t>
+  </si>
+  <si>
+    <t>The Bell Creek project is a collaboration between the Plains CO2 Reduction PCOR Partnership and Denbury Onshore LLC to study incidental CO2 storage associated with a Denbury-operated commercial EOR project. The PCOR Partnership is conducting site characterization, modeling and predictive simulation, and monitoring, verification, and accounting MVA to study the interrelationship of commercial CO2 EOR operations and incidental CO2 storage and to evaluate how EOR injection strategies affect associated storage. As of June 2017, EOR operations have resulted in approximately 4.0 million tonnes of associated CO2 storage at the site.</t>
+  </si>
+  <si>
+    <t>Century Plant</t>
+  </si>
+  <si>
+    <t>The Century Plant natural gas treatment facility in Texas, when fully operational, has a CO2 capture capacity of around 8.4 Mtpa. Captured CO2 is transported via a pipeline system to oil fields for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Coffeyville Gasification Plant</t>
+  </si>
+  <si>
+    <t>The Coffeyville Resources Nitrogen Fertilizers fertiliser plant in Coffeyville, Kansas, has been retrofitted with CO2 compression and dehydration facilities and since 2013 has been delivering CO2 to the North Burbank Oil Unit in Osage County, Oklahoma, for enhanced oil recovery. Carbon dioxide capture capacity of the compression facilities is around 1 Mtpa.</t>
+  </si>
+  <si>
+    <t>Cranfield Project</t>
+  </si>
+  <si>
+    <t>The Cranfield Project in Mississippi, US, involved the monitoring of large-scale CO2 injection into a saline formation of the Cranfield oil unit operated by Denbury Resources. The naturally occurring CO2 was sourced from Jackson Dome. Up to January 2015, the Cranfield Project had monitored around 4.7 million tonnes of CO2 stored under the SECARB Phase III Development Program.</t>
+  </si>
+  <si>
+    <t>Great Plains Synfuels Plant and Weyburn-Midale</t>
+  </si>
+  <si>
+    <t>Synthetic Natural Gas</t>
+  </si>
+  <si>
+    <t>The Great Plains Synfuels plant, located in North Dakota, produces high purity CO2 as part of its coal gasification process. Carbon dioxide capture capacity of the plant is approximately 3 Mtpa. The captured CO2 is transported via pipeline to the Weyburn Oil Unit and the Midale Oil Unit in Saskatchewan, Canada, for use in enhanced oil recovery. Around 35 million tonnes of CO2 has been captured and transported to date.</t>
+  </si>
+  <si>
+    <t>Integrated Midcontinent Stacked Carbon Storage Hub</t>
+  </si>
+  <si>
+    <t>2025 - 2035</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>The Integrated Midcontinent Stacked Carbon Storage Hub involves developing a commercial scale CO2 storage hub in Nebraska and Kansas. The storage hub will form part of an integrated CO2 collection, transportation and storage infrastructure which will enable the collection of CO2 from the dense concentration of  ethanol plants, power plants and refinery.</t>
+  </si>
+  <si>
+    <t>Enid Fertilizer</t>
+  </si>
+  <si>
+    <t>The Koch Nitrogen Company facility in Enid, Oklahoma produces nitrogen fertilisers which result in a high purity, high concentration CO2 off-gas. The CO2 off-gas is processed at compression, cooling and dehydration facilities owned by Chaparral Energy and Merit Energy. The processed CO2 of up to around 0.7 Mtpa is transported to depleted oil fields in southern Oklahoma for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Lost Cabin Gas Plant</t>
+  </si>
+  <si>
+    <t>The Lost Cabin Gas plant, located in Wyoming, supplies CO2 to compression facilities adjacent to the plant to enable CO2 transport by pipeline. Carbon dioxide capture capacity is around 0.9 Mtpa, and since 2013, CO2 has been delivered via a new build pipeline to the Bell Creek oil field in Montana for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Project Tundra</t>
+  </si>
+  <si>
+    <t>2025 - 2026</t>
+  </si>
+  <si>
+    <t>The Minnkota Power Cooperative is planning the retrofit of a 3.1 to 3.6 Mtpa CO2 capture plant to the Milton R. Young coal-fired power station in North Dakota USA. Carbon dioxide will be captured from Unit 2 of the power station which generates  455 megawatts of electric (MWe). They are initially targeting dedicated geological storage sites. The North Dakota CarbonSAFE Storage Hub  is studying the future potential for the utilisation of CO2 from this facility for EOR.</t>
+  </si>
+  <si>
+    <t>Michigan Basin Large Scale Injection Test</t>
+  </si>
+  <si>
+    <t>The project is designed to inject and monitor approximately one million tonnes of CO2 within a series of formations currently being used for enhanced oil recovery operations. Carbon dioxide injection associated with the Large-scale Injection Test began in March 2013. As of early 2019, the project had successfully injected and monitored the storage of more than 1,100,000 tonnes of new CO2.</t>
+  </si>
+  <si>
+    <t>Shute Creek Gas Processing Plant</t>
+  </si>
+  <si>
+    <t>The Shute Creek gas treating facility, located in Wyoming, began operation in 1986. After a plant expansion was completed in 2010, annual CO2 capture capacity is now at around 7 Mtpa. The captured CO2 is distributed via pipeline systems to a number of depleted oil fields in Wyoming and Colorado for use in enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Farnsworth Unit EOR Field Project - Development Phase</t>
+  </si>
+  <si>
+    <t>Ethanol Production and Fertiliser Production</t>
+  </si>
+  <si>
+    <t>The Southwest Regional Partnership on Carbon Sequestration SWP monitors activities on active CO2-EOR injection well patterns. The SWP Phase III project intends to track the injection of over 0.2 Mtpa of CO2 over multiple years until at least one million tonnes of CO2 has been injected. As of April 2017, purchased CO2 totalled approximately 640,000 tonnes, with net CO2 storage placed at around 595,000 tonnes.</t>
+  </si>
+  <si>
+    <t>Terrell Natural Gas Processing Plant (formerly Val Verde Natural Gas Plants)</t>
+  </si>
+  <si>
+    <t>The Terrell gas processing facility is one of the original Val Verde natural gas processing plants in west Texas, that began capturing CO2 as part of gas processing since the early 1970s. Captured CO2 is transported via the Val Verde pipeline to McCamey, Texas, where it connects with the Canyon Reef Carriers CRC pipeline and the Pecos pipeline. The CO2 is then distributed to mature oil fields for enhanced oil recovery. The Terrell facility has a CO2 capture capacity of around 0.4-0.5 Mtpa.</t>
+  </si>
+  <si>
+    <t>Fuel Cell Carbon Capture Pilot Plant</t>
+  </si>
+  <si>
+    <t>This pilot plant will utilise FuelCell Energy’s commercial DFC3000® carbonate fuel cell power system to concentrate and capture a portion of the CO2 emissions from the exhaust flue gases at the Plant Barry power station in Alabama, US for natural gas-fired generation.</t>
+  </si>
+  <si>
+    <t>CarbonSAFE Illinois – Macon County</t>
+  </si>
+  <si>
+    <t>This project seeks to establish a 50+ million tonne commercial geological storage hub in Illinois, USA. Adjacent power plants, such as Prairie State Generation (816 MWe, coal-fired power plant, 10 Mtpa CO2) which has been awarded a full-scale FEED study,  and regional ethanol plants are potential CO2 sources.</t>
+  </si>
+  <si>
+    <t>Wabash CO2 Sequestration</t>
+  </si>
+  <si>
+    <t>Wabash Valley Resources LLC aims to develop an ammonia plant with near-zero CO2 emissions using a repurposed integrated gasification combined cycle (IGCC) plant in Indiana, USA. The facility will capture 1.5 to 1.75 Mtpa CO2 for dedicated geological storage in the Wabash CarbonSAFE CO2 storage hub.</t>
+  </si>
+  <si>
+    <t>Global CCS Institute Database (as of 4/30/2020)</t>
+  </si>
+  <si>
+    <t>Tons/Yr</t>
+  </si>
+  <si>
+    <t>Start Year</t>
+  </si>
+  <si>
+    <t>Industry (all other)</t>
+  </si>
+  <si>
+    <t>Electricity Sector</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[transportation sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[electricity sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[residential buildings sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[commercial buildings sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[industry sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[district heat and hydrogen sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[LULUCF sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Total Pollutant Emissions by Sector[geoengineering sector,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>EPS-US 2.1.1 BAU Model Run Result (grams CO2)</t>
+  </si>
+  <si>
+    <t>CCS Capacity by Year (tons CO2)</t>
+  </si>
+  <si>
+    <t>CO2 Capture Percentage by Year</t>
+  </si>
+  <si>
+    <t>The database only includes projects coming online through 2026.  We will assume that the overall increase in capacity</t>
+  </si>
+  <si>
+    <t>after 2026 follows a linear trend based on the 2018-2026 period.</t>
+  </si>
+  <si>
+    <t>Electricity Sector (trend)</t>
+  </si>
+  <si>
+    <t>Industry (all other) (trend)</t>
+  </si>
+  <si>
+    <t>We don't want to model these values exactly, as the timeline for each future project is uncertain.  We just want to get</t>
+  </si>
+  <si>
+    <t>a general idea of the rate of increase.  Therefore, we will use a trendline extending across the whole period, which will</t>
+  </si>
+  <si>
+    <t>provide a smooth increase in potential and avoid discontinuities in output graphs.  It will also be easier to adapt to</t>
+  </si>
+  <si>
+    <t>other regions.</t>
+  </si>
+  <si>
+    <t>Capacity data trend:</t>
+  </si>
+  <si>
+    <t>The bump in 2020 is due to the recession lowering CO2 output, but this isn't reflected in CCS data.  In reality, the scaling-</t>
+  </si>
+  <si>
+    <t>back of plants would include scaling-back of CCS-equipped plants, so we wouldn't expect to see a spike in CO2 capture</t>
+  </si>
+  <si>
+    <t>during a recession.  We will take the general trends from the graph above, which will be more accurate than using the</t>
+  </si>
+  <si>
+    <t>data directly.</t>
+  </si>
+  <si>
+    <t>CCS Capture Percentage (BAU Case)</t>
+  </si>
+  <si>
+    <t>Industry Sector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +524,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +542,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,10 +567,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -170,9 +581,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,6 +622,3275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CO2 Annual Capture Quantities (tons/yr)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BAU Calculations'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electricity Sector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$2:$AH$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0C9-422C-89FE-E0742A40CC3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BAU Calculations'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry (all other)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$2:$AH$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>26078095.238095235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26078095.238095235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26078095.238095235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26078095.238095235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31703095.238095235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31703095.238095235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31703095.238095235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32203095.238095239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0C9-422C-89FE-E0742A40CC3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BAU Calculations'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electricity Sector (trend)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$15:$AH$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$16:$AH$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>137777.77777767181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>714444.44444441795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1291111.1111109257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1867777.7777776718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2444444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3021111.1111109257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3597777.7777776718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4174444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4751111.1111109257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5327777.7777776718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5904444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6481111.1111109257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7057777.7777776718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7634444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8211111.1111109257</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8787777.7777776718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9364444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9941111.1111109257</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10517777.777777672</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11094444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11671111.111110926</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12247777.777777672</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12824444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13401111.111110926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13977777.777777672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14554444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15131111.111110926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15707777.777777672</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16284444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16861111.111110926</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17437777.777777672</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18014444.444444418</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18591111.111110926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B0C9-422C-89FE-E0742A40CC3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BAU Calculations'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry (all other) (trend)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$15:$AH$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$17:$AH$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>25330873.015873194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26326706.349206448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27322539.68253994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28318373.015873194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29314206.349206448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30310039.68253994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31305873.015873194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32301706.349206448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33297539.68253994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34293373.015873194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35289206.349206448</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36285039.68253994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37280873.015873194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38276706.349206448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39272539.68253994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40268373.015873194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41264206.349206448</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42260039.68253994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43255873.015873194</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44251706.349206448</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45247539.68253994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46243373.015873194</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47239206.349206448</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48235039.68253994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49230873.015873194</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50226706.349206448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51222539.68253994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52218373.015873194</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53214206.349206448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54210039.68253994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55205873.015873194</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56201706.349206448</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57197539.68253994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B0C9-422C-89FE-E0742A40CC3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2031174976"/>
+        <c:axId val="2027801200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2031174976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027801200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2027801200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031174976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CO2 Capture Percentage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BAU Calculations'!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electricity Sector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$48:$AH$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$49:$AH$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>7.6285534293980226E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4592021148960663E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0240330510631465E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1232186193698113E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6722153813410986E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0855529246446031E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4680686943245127E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9649516981983606E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3259440749813969E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7316946563221327E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0972357151888988E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5382118527231086E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9430444858439239E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3388096731056987E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6006487354961637E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9472917601922507E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.306193058698159E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6721105480794162E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9954824229820035E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3648239486224986E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7678461161877453E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1224071740683551E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4201833443491511E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8033733247787349E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1129307996777181E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3999098687930563E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6477282710034206E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9362231809127129E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0207315196126552E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0452613670021031E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.063292099768148E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0859074490451325E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1096520897165408E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2511-4156-BADF-60177B593443}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BAU Calculations'!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry (all other)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$48:$AH$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BAU Calculations'!$B$50:$AH$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1.9268003145964125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9813733884148119E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1668561841291699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1404342349982008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1538409684799965E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1921383759349621E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2374922642942642E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2878993058190637E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3363251508577643E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3896988269309916E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4353003201506102E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4895566818667666E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5404169658723413E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5931673745787059E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.646861288537071E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7033010886058806E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7546750835601812E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8035611483935553E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8502627826564923E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8960540804454479E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9370648320128225E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9839054444477334E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0272034008040068E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0712978384435589E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1162330528714154E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1602639084140668E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2021892637917951E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2375054569273858E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2808378915273675E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3217139616382417E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3595541162862133E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4009698127227775E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4393570580530677E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2511-4156-BADF-60177B593443}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="279557856"/>
+        <c:axId val="1897208480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="279557856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1897208480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1897208480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279557856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E945454C-0CDE-40C2-B81D-C0A65D099D26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3686175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42135B7-2B69-46C6-9318-6512602831BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,20 +4218,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,98 +4239,98 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
@@ -640,6 +4341,4170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98F409B-9D44-4FC4-90E1-16ADDD7FF46C}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="86.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="12">
+        <f>E8</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2009</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="12">
+        <v>190000</v>
+      </c>
+      <c r="I9" s="12">
+        <f>E9</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="12">
+        <v>350000</v>
+      </c>
+      <c r="I10" s="12">
+        <f>E10</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="12">
+        <v>250000</v>
+      </c>
+      <c r="I11" s="12">
+        <f>E11</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="12">
+        <f>E12</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <f>E13</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="12">
+        <v>4000000</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <f>E15</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="12">
+        <v>500000</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1400000</v>
+      </c>
+      <c r="I17" s="12">
+        <f>E17</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2012</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="I18" s="12">
+        <f>E18</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2026</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <f>E19</f>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2025</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="I20" s="12">
+        <f>E20</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="13">
+        <f>4000000/7</f>
+        <v>571428.57142857148</v>
+      </c>
+      <c r="I21" s="12">
+        <f>E21</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="12">
+        <v>8400000</v>
+      </c>
+      <c r="I22" s="12">
+        <f>E22</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="12">
+        <f>E23</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2009</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="13">
+        <f>4700000/6</f>
+        <v>783333.33333333337</v>
+      </c>
+      <c r="I24" s="12">
+        <f>E24</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="I25" s="12">
+        <f>E25</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1982</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="12">
+        <v>700000</v>
+      </c>
+      <c r="I27" s="12">
+        <f>E27</f>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="12">
+        <v>900000</v>
+      </c>
+      <c r="I28" s="12">
+        <f>E28</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3400000</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="13">
+        <f>1100000/6</f>
+        <v>183333.33333333334</v>
+      </c>
+      <c r="I30" s="12">
+        <f>E30</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1986</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="12">
+        <v>7000000</v>
+      </c>
+      <c r="I31" s="12">
+        <f>E31</f>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="12">
+        <v>200000</v>
+      </c>
+      <c r="I32" s="12">
+        <f>E32</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1972</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="12">
+        <v>450000</v>
+      </c>
+      <c r="I33" s="12">
+        <f>E33</f>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2025</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <f>E35</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1625000</v>
+      </c>
+      <c r="I36" s="12">
+        <f>E36</f>
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A7:H36" xr:uid="{3D3868EF-6A08-45F6-B224-DB32BF8F3F7D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5266F-BD5E-4822-BA8F-3811C6ED8EBD}">
+  <dimension ref="A1:AI76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="52.90625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+      <c r="H2">
+        <v>2024</v>
+      </c>
+      <c r="I2">
+        <v>2025</v>
+      </c>
+      <c r="J2">
+        <v>2026</v>
+      </c>
+      <c r="K2">
+        <v>2027</v>
+      </c>
+      <c r="L2">
+        <v>2028</v>
+      </c>
+      <c r="M2">
+        <v>2029</v>
+      </c>
+      <c r="N2">
+        <v>2030</v>
+      </c>
+      <c r="O2">
+        <v>2031</v>
+      </c>
+      <c r="P2">
+        <v>2032</v>
+      </c>
+      <c r="Q2">
+        <v>2033</v>
+      </c>
+      <c r="R2">
+        <v>2034</v>
+      </c>
+      <c r="S2">
+        <v>2035</v>
+      </c>
+      <c r="T2">
+        <v>2036</v>
+      </c>
+      <c r="U2">
+        <v>2037</v>
+      </c>
+      <c r="V2">
+        <v>2038</v>
+      </c>
+      <c r="W2">
+        <v>2039</v>
+      </c>
+      <c r="X2">
+        <v>2040</v>
+      </c>
+      <c r="Y2">
+        <v>2041</v>
+      </c>
+      <c r="Z2">
+        <v>2042</v>
+      </c>
+      <c r="AA2">
+        <v>2043</v>
+      </c>
+      <c r="AB2">
+        <v>2044</v>
+      </c>
+      <c r="AC2">
+        <v>2045</v>
+      </c>
+      <c r="AD2">
+        <v>2046</v>
+      </c>
+      <c r="AE2">
+        <v>2047</v>
+      </c>
+      <c r="AF2">
+        <v>2048</v>
+      </c>
+      <c r="AG2">
+        <v>2049</v>
+      </c>
+      <c r="AH2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",B$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>1400000</v>
+      </c>
+      <c r="C3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",C$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>1400000</v>
+      </c>
+      <c r="D3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",D$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>1400000</v>
+      </c>
+      <c r="E3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",E$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>1400000</v>
+      </c>
+      <c r="F3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",F$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>1400000</v>
+      </c>
+      <c r="G3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",G$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>1400000</v>
+      </c>
+      <c r="H3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",H$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>1400000</v>
+      </c>
+      <c r="I3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",I$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>4400000</v>
+      </c>
+      <c r="J3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",J$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="K3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",K$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="L3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",L$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="M3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",M$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="N3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",N$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="O3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",O$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="P3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",P$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="Q3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",Q$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="R3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",R$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="S3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",S$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="T3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",T$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="U3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",U$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="V3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",V$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="W3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",W$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="X3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",X$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",Y$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="Z3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",Z$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AA3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AA$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AB3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AB$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AC3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AC$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AD3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AD$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AE3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AE$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AF3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AF$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AG3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AG$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AH3" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AH$2),'Global CCS Database'!$F:$F,"Power Generation")</f>
+        <v>7800000</v>
+      </c>
+      <c r="AI3" s="10"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",B$2))-B3</f>
+        <v>26078095.238095235</v>
+      </c>
+      <c r="C4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",C$2))-C3</f>
+        <v>26078095.238095235</v>
+      </c>
+      <c r="D4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",D$2))-D3</f>
+        <v>26078095.238095235</v>
+      </c>
+      <c r="E4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",E$2))-E3</f>
+        <v>26078095.238095235</v>
+      </c>
+      <c r="F4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",F$2))-F3</f>
+        <v>31703095.238095235</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",G$2))-G3</f>
+        <v>31703095.238095235</v>
+      </c>
+      <c r="H4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",H$2))-H3</f>
+        <v>31703095.238095235</v>
+      </c>
+      <c r="I4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",I$2))-I3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="J4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",J$2))-J3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="K4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",K$2))-K3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="L4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",L$2))-L3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="M4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",M$2))-M3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="N4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",N$2))-N3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="O4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",O$2))-O3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="P4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",P$2))-P3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="Q4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",Q$2))-Q3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="R4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",R$2))-R3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="S4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",S$2))-S3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="T4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",T$2))-T3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="U4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",U$2))-U3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="V4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",V$2))-V3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="W4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",W$2))-W3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="X4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",X$2))-X3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="Y4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",Y$2))-Y3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="Z4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",Z$2))-Z3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AA4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AA$2))-AA3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AB4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AB$2))-AB3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AC4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AC$2))-AC3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AD4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AD$2))-AD3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AE4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AE$2))-AE3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AF4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AF$2))-AF3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AG4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AG$2))-AG3</f>
+        <v>32203095.238095239</v>
+      </c>
+      <c r="AH4" s="14">
+        <f>SUMIFS('Global CCS Database'!$H:$H,'Global CCS Database'!$I:$I,_xlfn.CONCAT("&lt;=",AH$2))-AH3</f>
+        <v>32203095.238095239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+      <c r="G15">
+        <v>2023</v>
+      </c>
+      <c r="H15">
+        <v>2024</v>
+      </c>
+      <c r="I15">
+        <v>2025</v>
+      </c>
+      <c r="J15">
+        <v>2026</v>
+      </c>
+      <c r="K15">
+        <v>2027</v>
+      </c>
+      <c r="L15">
+        <v>2028</v>
+      </c>
+      <c r="M15">
+        <v>2029</v>
+      </c>
+      <c r="N15">
+        <v>2030</v>
+      </c>
+      <c r="O15">
+        <v>2031</v>
+      </c>
+      <c r="P15">
+        <v>2032</v>
+      </c>
+      <c r="Q15">
+        <v>2033</v>
+      </c>
+      <c r="R15">
+        <v>2034</v>
+      </c>
+      <c r="S15">
+        <v>2035</v>
+      </c>
+      <c r="T15">
+        <v>2036</v>
+      </c>
+      <c r="U15">
+        <v>2037</v>
+      </c>
+      <c r="V15">
+        <v>2038</v>
+      </c>
+      <c r="W15">
+        <v>2039</v>
+      </c>
+      <c r="X15">
+        <v>2040</v>
+      </c>
+      <c r="Y15">
+        <v>2041</v>
+      </c>
+      <c r="Z15">
+        <v>2042</v>
+      </c>
+      <c r="AA15">
+        <v>2043</v>
+      </c>
+      <c r="AB15">
+        <v>2044</v>
+      </c>
+      <c r="AC15">
+        <v>2045</v>
+      </c>
+      <c r="AD15">
+        <v>2046</v>
+      </c>
+      <c r="AE15">
+        <v>2047</v>
+      </c>
+      <c r="AF15">
+        <v>2048</v>
+      </c>
+      <c r="AG15">
+        <v>2049</v>
+      </c>
+      <c r="AH15">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="14" cm="1">
+        <f t="array" ref="B16">TREND($B3:$J3,$B$2:$J$2,B$15)</f>
+        <v>137777.77777767181</v>
+      </c>
+      <c r="C16" s="14" cm="1">
+        <f t="array" ref="C16">TREND($B3:$J3,$B$2:$J$2,C$15)</f>
+        <v>714444.44444441795</v>
+      </c>
+      <c r="D16" s="14" cm="1">
+        <f t="array" ref="D16">TREND($B3:$J3,$B$2:$J$2,D$15)</f>
+        <v>1291111.1111109257</v>
+      </c>
+      <c r="E16" s="14" cm="1">
+        <f t="array" ref="E16">TREND($B3:$J3,$B$2:$J$2,E$15)</f>
+        <v>1867777.7777776718</v>
+      </c>
+      <c r="F16" s="14" cm="1">
+        <f t="array" ref="F16">TREND($B3:$J3,$B$2:$J$2,F$15)</f>
+        <v>2444444.444444418</v>
+      </c>
+      <c r="G16" s="14" cm="1">
+        <f t="array" ref="G16">TREND($B3:$J3,$B$2:$J$2,G$15)</f>
+        <v>3021111.1111109257</v>
+      </c>
+      <c r="H16" s="14" cm="1">
+        <f t="array" ref="H16">TREND($B3:$J3,$B$2:$J$2,H$15)</f>
+        <v>3597777.7777776718</v>
+      </c>
+      <c r="I16" s="14" cm="1">
+        <f t="array" ref="I16">TREND($B3:$J3,$B$2:$J$2,I$15)</f>
+        <v>4174444.444444418</v>
+      </c>
+      <c r="J16" s="14" cm="1">
+        <f t="array" ref="J16">TREND($B3:$J3,$B$2:$J$2,J$15)</f>
+        <v>4751111.1111109257</v>
+      </c>
+      <c r="K16" s="14" cm="1">
+        <f t="array" ref="K16">TREND($B3:$J3,$B$2:$J$2,K$15)</f>
+        <v>5327777.7777776718</v>
+      </c>
+      <c r="L16" s="14" cm="1">
+        <f t="array" ref="L16">TREND($B3:$J3,$B$2:$J$2,L$15)</f>
+        <v>5904444.444444418</v>
+      </c>
+      <c r="M16" s="14" cm="1">
+        <f t="array" ref="M16">TREND($B3:$J3,$B$2:$J$2,M$15)</f>
+        <v>6481111.1111109257</v>
+      </c>
+      <c r="N16" s="14" cm="1">
+        <f t="array" ref="N16">TREND($B3:$J3,$B$2:$J$2,N$15)</f>
+        <v>7057777.7777776718</v>
+      </c>
+      <c r="O16" s="14" cm="1">
+        <f t="array" ref="O16">TREND($B3:$J3,$B$2:$J$2,O$15)</f>
+        <v>7634444.444444418</v>
+      </c>
+      <c r="P16" s="14" cm="1">
+        <f t="array" ref="P16">TREND($B3:$J3,$B$2:$J$2,P$15)</f>
+        <v>8211111.1111109257</v>
+      </c>
+      <c r="Q16" s="14" cm="1">
+        <f t="array" ref="Q16">TREND($B3:$J3,$B$2:$J$2,Q$15)</f>
+        <v>8787777.7777776718</v>
+      </c>
+      <c r="R16" s="14" cm="1">
+        <f t="array" ref="R16">TREND($B3:$J3,$B$2:$J$2,R$15)</f>
+        <v>9364444.444444418</v>
+      </c>
+      <c r="S16" s="14" cm="1">
+        <f t="array" ref="S16">TREND($B3:$J3,$B$2:$J$2,S$15)</f>
+        <v>9941111.1111109257</v>
+      </c>
+      <c r="T16" s="14" cm="1">
+        <f t="array" ref="T16">TREND($B3:$J3,$B$2:$J$2,T$15)</f>
+        <v>10517777.777777672</v>
+      </c>
+      <c r="U16" s="14" cm="1">
+        <f t="array" ref="U16">TREND($B3:$J3,$B$2:$J$2,U$15)</f>
+        <v>11094444.444444418</v>
+      </c>
+      <c r="V16" s="14" cm="1">
+        <f t="array" ref="V16">TREND($B3:$J3,$B$2:$J$2,V$15)</f>
+        <v>11671111.111110926</v>
+      </c>
+      <c r="W16" s="14" cm="1">
+        <f t="array" ref="W16">TREND($B3:$J3,$B$2:$J$2,W$15)</f>
+        <v>12247777.777777672</v>
+      </c>
+      <c r="X16" s="14" cm="1">
+        <f t="array" ref="X16">TREND($B3:$J3,$B$2:$J$2,X$15)</f>
+        <v>12824444.444444418</v>
+      </c>
+      <c r="Y16" s="14" cm="1">
+        <f t="array" ref="Y16">TREND($B3:$J3,$B$2:$J$2,Y$15)</f>
+        <v>13401111.111110926</v>
+      </c>
+      <c r="Z16" s="14" cm="1">
+        <f t="array" ref="Z16">TREND($B3:$J3,$B$2:$J$2,Z$15)</f>
+        <v>13977777.777777672</v>
+      </c>
+      <c r="AA16" s="14" cm="1">
+        <f t="array" ref="AA16">TREND($B3:$J3,$B$2:$J$2,AA$15)</f>
+        <v>14554444.444444418</v>
+      </c>
+      <c r="AB16" s="14" cm="1">
+        <f t="array" ref="AB16">TREND($B3:$J3,$B$2:$J$2,AB$15)</f>
+        <v>15131111.111110926</v>
+      </c>
+      <c r="AC16" s="14" cm="1">
+        <f t="array" ref="AC16">TREND($B3:$J3,$B$2:$J$2,AC$15)</f>
+        <v>15707777.777777672</v>
+      </c>
+      <c r="AD16" s="14" cm="1">
+        <f t="array" ref="AD16">TREND($B3:$J3,$B$2:$J$2,AD$15)</f>
+        <v>16284444.444444418</v>
+      </c>
+      <c r="AE16" s="14" cm="1">
+        <f t="array" ref="AE16">TREND($B3:$J3,$B$2:$J$2,AE$15)</f>
+        <v>16861111.111110926</v>
+      </c>
+      <c r="AF16" s="14" cm="1">
+        <f t="array" ref="AF16">TREND($B3:$J3,$B$2:$J$2,AF$15)</f>
+        <v>17437777.777777672</v>
+      </c>
+      <c r="AG16" s="14" cm="1">
+        <f t="array" ref="AG16">TREND($B3:$J3,$B$2:$J$2,AG$15)</f>
+        <v>18014444.444444418</v>
+      </c>
+      <c r="AH16" s="14" cm="1">
+        <f t="array" ref="AH16">TREND($B3:$J3,$B$2:$J$2,AH$15)</f>
+        <v>18591111.111110926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="14" cm="1">
+        <f t="array" ref="B17">TREND($B4:$J4,$B$2:$J$2,B$15)</f>
+        <v>25330873.015873194</v>
+      </c>
+      <c r="C17" s="14" cm="1">
+        <f t="array" ref="C17">TREND($B4:$J4,$B$2:$J$2,C$15)</f>
+        <v>26326706.349206448</v>
+      </c>
+      <c r="D17" s="14" cm="1">
+        <f t="array" ref="D17">TREND($B4:$J4,$B$2:$J$2,D$15)</f>
+        <v>27322539.68253994</v>
+      </c>
+      <c r="E17" s="14" cm="1">
+        <f t="array" ref="E17">TREND($B4:$J4,$B$2:$J$2,E$15)</f>
+        <v>28318373.015873194</v>
+      </c>
+      <c r="F17" s="14" cm="1">
+        <f t="array" ref="F17">TREND($B4:$J4,$B$2:$J$2,F$15)</f>
+        <v>29314206.349206448</v>
+      </c>
+      <c r="G17" s="14" cm="1">
+        <f t="array" ref="G17">TREND($B4:$J4,$B$2:$J$2,G$15)</f>
+        <v>30310039.68253994</v>
+      </c>
+      <c r="H17" s="14" cm="1">
+        <f t="array" ref="H17">TREND($B4:$J4,$B$2:$J$2,H$15)</f>
+        <v>31305873.015873194</v>
+      </c>
+      <c r="I17" s="14" cm="1">
+        <f t="array" ref="I17">TREND($B4:$J4,$B$2:$J$2,I$15)</f>
+        <v>32301706.349206448</v>
+      </c>
+      <c r="J17" s="14" cm="1">
+        <f t="array" ref="J17">TREND($B4:$J4,$B$2:$J$2,J$15)</f>
+        <v>33297539.68253994</v>
+      </c>
+      <c r="K17" s="14" cm="1">
+        <f t="array" ref="K17">TREND($B4:$J4,$B$2:$J$2,K$15)</f>
+        <v>34293373.015873194</v>
+      </c>
+      <c r="L17" s="14" cm="1">
+        <f t="array" ref="L17">TREND($B4:$J4,$B$2:$J$2,L$15)</f>
+        <v>35289206.349206448</v>
+      </c>
+      <c r="M17" s="14" cm="1">
+        <f t="array" ref="M17">TREND($B4:$J4,$B$2:$J$2,M$15)</f>
+        <v>36285039.68253994</v>
+      </c>
+      <c r="N17" s="14" cm="1">
+        <f t="array" ref="N17">TREND($B4:$J4,$B$2:$J$2,N$15)</f>
+        <v>37280873.015873194</v>
+      </c>
+      <c r="O17" s="14" cm="1">
+        <f t="array" ref="O17">TREND($B4:$J4,$B$2:$J$2,O$15)</f>
+        <v>38276706.349206448</v>
+      </c>
+      <c r="P17" s="14" cm="1">
+        <f t="array" ref="P17">TREND($B4:$J4,$B$2:$J$2,P$15)</f>
+        <v>39272539.68253994</v>
+      </c>
+      <c r="Q17" s="14" cm="1">
+        <f t="array" ref="Q17">TREND($B4:$J4,$B$2:$J$2,Q$15)</f>
+        <v>40268373.015873194</v>
+      </c>
+      <c r="R17" s="14" cm="1">
+        <f t="array" ref="R17">TREND($B4:$J4,$B$2:$J$2,R$15)</f>
+        <v>41264206.349206448</v>
+      </c>
+      <c r="S17" s="14" cm="1">
+        <f t="array" ref="S17">TREND($B4:$J4,$B$2:$J$2,S$15)</f>
+        <v>42260039.68253994</v>
+      </c>
+      <c r="T17" s="14" cm="1">
+        <f t="array" ref="T17">TREND($B4:$J4,$B$2:$J$2,T$15)</f>
+        <v>43255873.015873194</v>
+      </c>
+      <c r="U17" s="14" cm="1">
+        <f t="array" ref="U17">TREND($B4:$J4,$B$2:$J$2,U$15)</f>
+        <v>44251706.349206448</v>
+      </c>
+      <c r="V17" s="14" cm="1">
+        <f t="array" ref="V17">TREND($B4:$J4,$B$2:$J$2,V$15)</f>
+        <v>45247539.68253994</v>
+      </c>
+      <c r="W17" s="14" cm="1">
+        <f t="array" ref="W17">TREND($B4:$J4,$B$2:$J$2,W$15)</f>
+        <v>46243373.015873194</v>
+      </c>
+      <c r="X17" s="14" cm="1">
+        <f t="array" ref="X17">TREND($B4:$J4,$B$2:$J$2,X$15)</f>
+        <v>47239206.349206448</v>
+      </c>
+      <c r="Y17" s="14" cm="1">
+        <f t="array" ref="Y17">TREND($B4:$J4,$B$2:$J$2,Y$15)</f>
+        <v>48235039.68253994</v>
+      </c>
+      <c r="Z17" s="14" cm="1">
+        <f t="array" ref="Z17">TREND($B4:$J4,$B$2:$J$2,Z$15)</f>
+        <v>49230873.015873194</v>
+      </c>
+      <c r="AA17" s="14" cm="1">
+        <f t="array" ref="AA17">TREND($B4:$J4,$B$2:$J$2,AA$15)</f>
+        <v>50226706.349206448</v>
+      </c>
+      <c r="AB17" s="14" cm="1">
+        <f t="array" ref="AB17">TREND($B4:$J4,$B$2:$J$2,AB$15)</f>
+        <v>51222539.68253994</v>
+      </c>
+      <c r="AC17" s="14" cm="1">
+        <f t="array" ref="AC17">TREND($B4:$J4,$B$2:$J$2,AC$15)</f>
+        <v>52218373.015873194</v>
+      </c>
+      <c r="AD17" s="14" cm="1">
+        <f t="array" ref="AD17">TREND($B4:$J4,$B$2:$J$2,AD$15)</f>
+        <v>53214206.349206448</v>
+      </c>
+      <c r="AE17" s="14" cm="1">
+        <f t="array" ref="AE17">TREND($B4:$J4,$B$2:$J$2,AE$15)</f>
+        <v>54210039.68253994</v>
+      </c>
+      <c r="AF17" s="14" cm="1">
+        <f t="array" ref="AF17">TREND($B4:$J4,$B$2:$J$2,AF$15)</f>
+        <v>55205873.015873194</v>
+      </c>
+      <c r="AG17" s="14" cm="1">
+        <f t="array" ref="AG17">TREND($B4:$J4,$B$2:$J$2,AG$15)</f>
+        <v>56201706.349206448</v>
+      </c>
+      <c r="AH17" s="14" cm="1">
+        <f t="array" ref="AH17">TREND($B4:$J4,$B$2:$J$2,AH$15)</f>
+        <v>57197539.68253994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37">
+        <v>2019</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>2021</v>
+      </c>
+      <c r="F37">
+        <v>2022</v>
+      </c>
+      <c r="G37">
+        <v>2023</v>
+      </c>
+      <c r="H37">
+        <v>2024</v>
+      </c>
+      <c r="I37">
+        <v>2025</v>
+      </c>
+      <c r="J37">
+        <v>2026</v>
+      </c>
+      <c r="K37">
+        <v>2027</v>
+      </c>
+      <c r="L37">
+        <v>2028</v>
+      </c>
+      <c r="M37">
+        <v>2029</v>
+      </c>
+      <c r="N37">
+        <v>2030</v>
+      </c>
+      <c r="O37">
+        <v>2031</v>
+      </c>
+      <c r="P37">
+        <v>2032</v>
+      </c>
+      <c r="Q37">
+        <v>2033</v>
+      </c>
+      <c r="R37">
+        <v>2034</v>
+      </c>
+      <c r="S37">
+        <v>2035</v>
+      </c>
+      <c r="T37">
+        <v>2036</v>
+      </c>
+      <c r="U37">
+        <v>2037</v>
+      </c>
+      <c r="V37">
+        <v>2038</v>
+      </c>
+      <c r="W37">
+        <v>2039</v>
+      </c>
+      <c r="X37">
+        <v>2040</v>
+      </c>
+      <c r="Y37">
+        <v>2041</v>
+      </c>
+      <c r="Z37">
+        <v>2042</v>
+      </c>
+      <c r="AA37">
+        <v>2043</v>
+      </c>
+      <c r="AB37">
+        <v>2044</v>
+      </c>
+      <c r="AC37">
+        <v>2045</v>
+      </c>
+      <c r="AD37">
+        <v>2046</v>
+      </c>
+      <c r="AE37">
+        <v>2047</v>
+      </c>
+      <c r="AF37">
+        <v>2048</v>
+      </c>
+      <c r="AG37">
+        <v>2049</v>
+      </c>
+      <c r="AH37">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1885170000000000</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1881120000000000</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1637320000000000</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1745340000000000</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1769320000000000</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1763460000000000</v>
+      </c>
+      <c r="H38" s="14">
+        <v>1742630000000000</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1715230000000000</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1691930000000000</v>
+      </c>
+      <c r="K38" s="14">
+        <v>1669260000000000</v>
+      </c>
+      <c r="L38" s="14">
+        <v>1650150000000000</v>
+      </c>
+      <c r="M38" s="14">
+        <v>1619760000000000</v>
+      </c>
+      <c r="N38" s="14">
+        <v>1587760000000000</v>
+      </c>
+      <c r="O38" s="14">
+        <v>1556000000000000</v>
+      </c>
+      <c r="P38" s="14">
+        <v>1523730000000000</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>1493670000000000</v>
+      </c>
+      <c r="R38" s="14">
+        <v>1464230000000000</v>
+      </c>
+      <c r="S38" s="14">
+        <v>1435500000000000</v>
+      </c>
+      <c r="T38" s="14">
+        <v>1410050000000000</v>
+      </c>
+      <c r="U38" s="14">
+        <v>1386030000000000</v>
+      </c>
+      <c r="V38" s="14">
+        <v>1363150000000000</v>
+      </c>
+      <c r="W38" s="14">
+        <v>1339880000000000</v>
+      </c>
+      <c r="X38" s="14">
+        <v>1317020000000000</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>1295320000000000</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>1274780000000000</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>1256600000000000</v>
+      </c>
+      <c r="AB38" s="14">
+        <v>1240080000000000</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>1226700000000000</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>1215690000000000</v>
+      </c>
+      <c r="AE38" s="14">
+        <v>1207230000000000</v>
+      </c>
+      <c r="AF38" s="14">
+        <v>1200820000000000</v>
+      </c>
+      <c r="AG38" s="14">
+        <v>1194910000000000</v>
+      </c>
+      <c r="AH38" s="14">
+        <v>1190540000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1806080000000000</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1602180000000000</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1260810000000000</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1662880000000000</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1461800000000000</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1448590000000000</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1457730000000000</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1407930000000000</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1428500000000000</v>
+      </c>
+      <c r="K39" s="14">
+        <v>1427710000000000</v>
+      </c>
+      <c r="L39" s="14">
+        <v>1441080000000000</v>
+      </c>
+      <c r="M39" s="14">
+        <v>1428120000000000</v>
+      </c>
+      <c r="N39" s="14">
+        <v>1427820000000000</v>
+      </c>
+      <c r="O39" s="14">
+        <v>1429990000000000</v>
+      </c>
+      <c r="P39" s="14">
+        <v>1466100000000000</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>1477610000000000</v>
+      </c>
+      <c r="R39" s="14">
+        <v>1484960000000000</v>
+      </c>
+      <c r="S39" s="14">
+        <v>1489950000000000</v>
+      </c>
+      <c r="T39" s="14">
+        <v>1503510000000000</v>
+      </c>
+      <c r="U39" s="14">
+        <v>1506410000000000</v>
+      </c>
+      <c r="V39" s="14">
+        <v>1502490000000000</v>
+      </c>
+      <c r="W39" s="14">
+        <v>1507900000000000</v>
+      </c>
+      <c r="X39" s="14">
+        <v>1523060000000000</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>1522270000000000</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>1533840000000000</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>1548360000000000</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>1568360000000000</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>1580860000000000</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>1595370000000000</v>
+      </c>
+      <c r="AE39" s="14">
+        <v>1613100000000000</v>
+      </c>
+      <c r="AF39" s="14">
+        <v>1639980000000000</v>
+      </c>
+      <c r="AG39" s="14">
+        <v>1658930000000000</v>
+      </c>
+      <c r="AH39" s="14">
+        <v>1675400000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="14">
+        <v>332011000000000</v>
+      </c>
+      <c r="C40" s="14">
+        <v>327652000000000</v>
+      </c>
+      <c r="D40" s="14">
+        <v>300854000000000</v>
+      </c>
+      <c r="E40" s="14">
+        <v>306288000000000</v>
+      </c>
+      <c r="F40" s="14">
+        <v>307222000000000</v>
+      </c>
+      <c r="G40" s="14">
+        <v>306180000000000</v>
+      </c>
+      <c r="H40" s="14">
+        <v>304303000000000</v>
+      </c>
+      <c r="I40" s="14">
+        <v>302264000000000</v>
+      </c>
+      <c r="J40" s="14">
+        <v>300326000000000</v>
+      </c>
+      <c r="K40" s="14">
+        <v>298717000000000</v>
+      </c>
+      <c r="L40" s="14">
+        <v>297278000000000</v>
+      </c>
+      <c r="M40" s="14">
+        <v>295742000000000</v>
+      </c>
+      <c r="N40" s="14">
+        <v>294556000000000</v>
+      </c>
+      <c r="O40" s="14">
+        <v>293594000000000</v>
+      </c>
+      <c r="P40" s="14">
+        <v>292581000000000</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>291575000000000</v>
+      </c>
+      <c r="R40" s="14">
+        <v>290688000000000</v>
+      </c>
+      <c r="S40" s="14">
+        <v>289964000000000</v>
+      </c>
+      <c r="T40" s="14">
+        <v>289182000000000</v>
+      </c>
+      <c r="U40" s="14">
+        <v>288507000000000</v>
+      </c>
+      <c r="V40" s="14">
+        <v>287877000000000</v>
+      </c>
+      <c r="W40" s="14">
+        <v>287339000000000</v>
+      </c>
+      <c r="X40" s="14">
+        <v>286754000000000</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>286260000000000</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>285778000000000</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>285351000000000</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>284822000000000</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>284420000000000</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>284013000000000</v>
+      </c>
+      <c r="AE40" s="14">
+        <v>283667000000000</v>
+      </c>
+      <c r="AF40" s="14">
+        <v>283248000000000</v>
+      </c>
+      <c r="AG40" s="14">
+        <v>282771000000000</v>
+      </c>
+      <c r="AH40" s="14">
+        <v>282321000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="14">
+        <v>242482000000000</v>
+      </c>
+      <c r="C41" s="14">
+        <v>244478000000000</v>
+      </c>
+      <c r="D41" s="14">
+        <v>225334000000000</v>
+      </c>
+      <c r="E41" s="14">
+        <v>234520000000000</v>
+      </c>
+      <c r="F41" s="14">
+        <v>238095000000000</v>
+      </c>
+      <c r="G41" s="14">
+        <v>239009000000000</v>
+      </c>
+      <c r="H41" s="14">
+        <v>238662000000000</v>
+      </c>
+      <c r="I41" s="14">
+        <v>238435000000000</v>
+      </c>
+      <c r="J41" s="14">
+        <v>238539000000000</v>
+      </c>
+      <c r="K41" s="14">
+        <v>238978000000000</v>
+      </c>
+      <c r="L41" s="14">
+        <v>239894000000000</v>
+      </c>
+      <c r="M41" s="14">
+        <v>240216000000000</v>
+      </c>
+      <c r="N41" s="14">
+        <v>240985000000000</v>
+      </c>
+      <c r="O41" s="14">
+        <v>242007000000000</v>
+      </c>
+      <c r="P41" s="14">
+        <v>243087000000000</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>244142000000000</v>
+      </c>
+      <c r="R41" s="14">
+        <v>245312000000000</v>
+      </c>
+      <c r="S41" s="14">
+        <v>246677000000000</v>
+      </c>
+      <c r="T41" s="14">
+        <v>248007000000000</v>
+      </c>
+      <c r="U41" s="14">
+        <v>249423000000000</v>
+      </c>
+      <c r="V41" s="14">
+        <v>250993000000000</v>
+      </c>
+      <c r="W41" s="14">
+        <v>252668000000000</v>
+      </c>
+      <c r="X41" s="14">
+        <v>254374000000000</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>256174000000000</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>257940000000000</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>259889000000000</v>
+      </c>
+      <c r="AB41" s="14">
+        <v>261946000000000</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>263967000000000</v>
+      </c>
+      <c r="AD41" s="14">
+        <v>266313000000000</v>
+      </c>
+      <c r="AE41" s="14">
+        <v>268611000000000</v>
+      </c>
+      <c r="AF41" s="14">
+        <v>270889000000000</v>
+      </c>
+      <c r="AG41" s="14">
+        <v>273051000000000</v>
+      </c>
+      <c r="AH41" s="14">
+        <v>275286000000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1314660000000000</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1328710000000000</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1260930000000000</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1323020000000000</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1361020000000000</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1382670000000000</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1399150000000000</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1411850000000000</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1425210000000000</v>
+      </c>
+      <c r="K42" s="14">
+        <v>1435050000000000</v>
+      </c>
+      <c r="L42" s="14">
+        <v>1449070000000000</v>
+      </c>
+      <c r="M42" s="14">
+        <v>1457490000000000</v>
+      </c>
+      <c r="N42" s="14">
+        <v>1467510000000000</v>
+      </c>
+      <c r="O42" s="14">
+        <v>1476060000000000</v>
+      </c>
+      <c r="P42" s="14">
+        <v>1483740000000000</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>1489600000000000</v>
+      </c>
+      <c r="R42" s="14">
+        <v>1497970000000000</v>
+      </c>
+      <c r="S42" s="14">
+        <v>1507370000000000</v>
+      </c>
+      <c r="T42" s="14">
+        <v>1517610000000000</v>
+      </c>
+      <c r="U42" s="14">
+        <v>1528000000000000</v>
+      </c>
+      <c r="V42" s="14">
+        <v>1540570000000000</v>
+      </c>
+      <c r="W42" s="14">
+        <v>1549760000000000</v>
+      </c>
+      <c r="X42" s="14">
+        <v>1560490000000000</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>1570510000000000</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>1579820000000000</v>
+      </c>
+      <c r="AA42" s="14">
+        <v>1589320000000000</v>
+      </c>
+      <c r="AB42" s="14">
+        <v>1599610000000000</v>
+      </c>
+      <c r="AC42" s="14">
+        <v>1612920000000000</v>
+      </c>
+      <c r="AD42" s="14">
+        <v>1621970000000000</v>
+      </c>
+      <c r="AE42" s="14">
+        <v>1631990000000000</v>
+      </c>
+      <c r="AF42" s="14">
+        <v>1643250000000000</v>
+      </c>
+      <c r="AG42" s="14">
+        <v>1652520000000000</v>
+      </c>
+      <c r="AH42" s="14">
+        <v>1663030000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="14">
+        <v>13898800000000</v>
+      </c>
+      <c r="C43" s="14">
+        <v>13710200000000</v>
+      </c>
+      <c r="D43" s="14">
+        <v>12389000000000</v>
+      </c>
+      <c r="E43" s="14">
+        <v>12837300000000</v>
+      </c>
+      <c r="F43" s="14">
+        <v>12969700000000</v>
+      </c>
+      <c r="G43" s="14">
+        <v>12955200000000</v>
+      </c>
+      <c r="H43" s="14">
+        <v>12870600000000</v>
+      </c>
+      <c r="I43" s="14">
+        <v>12772900000000</v>
+      </c>
+      <c r="J43" s="14">
+        <v>12694600000000</v>
+      </c>
+      <c r="K43" s="14">
+        <v>12646400000000</v>
+      </c>
+      <c r="L43" s="14">
+        <v>12620500000000</v>
+      </c>
+      <c r="M43" s="14">
+        <v>12590200000000</v>
+      </c>
+      <c r="N43" s="14">
+        <v>12578600000000</v>
+      </c>
+      <c r="O43" s="14">
+        <v>12591600000000</v>
+      </c>
+      <c r="P43" s="14">
+        <v>12618900000000</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>12652300000000</v>
+      </c>
+      <c r="R43" s="14">
+        <v>12709100000000</v>
+      </c>
+      <c r="S43" s="14">
+        <v>12781500000000</v>
+      </c>
+      <c r="T43" s="14">
+        <v>12868900000000</v>
+      </c>
+      <c r="U43" s="14">
+        <v>12970300000000</v>
+      </c>
+      <c r="V43" s="14">
+        <v>13091200000000</v>
+      </c>
+      <c r="W43" s="14">
+        <v>13221300000000</v>
+      </c>
+      <c r="X43" s="14">
+        <v>13355400000000</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>13499800000000</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>13648100000000</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>13795400000000</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>13948500000000</v>
+      </c>
+      <c r="AC43" s="14">
+        <v>14098500000000</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>14247700000000</v>
+      </c>
+      <c r="AE43" s="14">
+        <v>14401100000000</v>
+      </c>
+      <c r="AF43" s="14">
+        <v>14547300000000</v>
+      </c>
+      <c r="AG43" s="14">
+        <v>14686200000000</v>
+      </c>
+      <c r="AH43" s="14">
+        <v>14832600000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="14">
+        <v>-1050000000000000</v>
+      </c>
+      <c r="C44" s="14">
+        <v>-1080000000000000</v>
+      </c>
+      <c r="D44" s="14">
+        <v>-1120000000000000</v>
+      </c>
+      <c r="E44" s="14">
+        <v>-1100000000000000</v>
+      </c>
+      <c r="F44" s="14">
+        <v>-1090000000000000</v>
+      </c>
+      <c r="G44" s="14">
+        <v>-1080000000000000</v>
+      </c>
+      <c r="H44" s="14">
+        <v>-1070000000000000</v>
+      </c>
+      <c r="I44" s="14">
+        <v>-1050000000000000</v>
+      </c>
+      <c r="J44" s="14">
+        <v>-1020000000000000</v>
+      </c>
+      <c r="K44" s="14">
+        <v>-994000000000000</v>
+      </c>
+      <c r="L44" s="14">
+        <v>-964000000000000</v>
+      </c>
+      <c r="M44" s="14">
+        <v>-934000000000000</v>
+      </c>
+      <c r="N44" s="14">
+        <v>-904000000000000</v>
+      </c>
+      <c r="O44" s="14">
+        <v>-903000000000000</v>
+      </c>
+      <c r="P44" s="14">
+        <v>-903000000000000</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>-902000000000000</v>
+      </c>
+      <c r="R44" s="14">
+        <v>-902000000000000</v>
+      </c>
+      <c r="S44" s="14">
+        <v>-902000000000000</v>
+      </c>
+      <c r="T44" s="14">
+        <v>-901000000000000</v>
+      </c>
+      <c r="U44" s="14">
+        <v>-901000000000000</v>
+      </c>
+      <c r="V44" s="14">
+        <v>-901000000000000</v>
+      </c>
+      <c r="W44" s="14">
+        <v>-900000000000000</v>
+      </c>
+      <c r="X44" s="14">
+        <v>-900000000000000</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>-900000000000000</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>-899000000000000</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>-899000000000000</v>
+      </c>
+      <c r="AB44" s="14">
+        <v>-899000000000000</v>
+      </c>
+      <c r="AC44" s="14">
+        <v>-898000000000000</v>
+      </c>
+      <c r="AD44" s="14">
+        <v>-898000000000000</v>
+      </c>
+      <c r="AE44" s="14">
+        <v>-897000000000000</v>
+      </c>
+      <c r="AF44" s="14">
+        <v>-897000000000000</v>
+      </c>
+      <c r="AG44" s="14">
+        <v>-897000000000000</v>
+      </c>
+      <c r="AH44" s="14">
+        <v>-896000000000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>2018</v>
+      </c>
+      <c r="C48">
+        <v>2019</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48">
+        <v>2021</v>
+      </c>
+      <c r="F48">
+        <v>2022</v>
+      </c>
+      <c r="G48">
+        <v>2023</v>
+      </c>
+      <c r="H48">
+        <v>2024</v>
+      </c>
+      <c r="I48">
+        <v>2025</v>
+      </c>
+      <c r="J48">
+        <v>2026</v>
+      </c>
+      <c r="K48">
+        <v>2027</v>
+      </c>
+      <c r="L48">
+        <v>2028</v>
+      </c>
+      <c r="M48">
+        <v>2029</v>
+      </c>
+      <c r="N48">
+        <v>2030</v>
+      </c>
+      <c r="O48">
+        <v>2031</v>
+      </c>
+      <c r="P48">
+        <v>2032</v>
+      </c>
+      <c r="Q48">
+        <v>2033</v>
+      </c>
+      <c r="R48">
+        <v>2034</v>
+      </c>
+      <c r="S48">
+        <v>2035</v>
+      </c>
+      <c r="T48">
+        <v>2036</v>
+      </c>
+      <c r="U48">
+        <v>2037</v>
+      </c>
+      <c r="V48">
+        <v>2038</v>
+      </c>
+      <c r="W48">
+        <v>2039</v>
+      </c>
+      <c r="X48">
+        <v>2040</v>
+      </c>
+      <c r="Y48">
+        <v>2041</v>
+      </c>
+      <c r="Z48">
+        <v>2042</v>
+      </c>
+      <c r="AA48">
+        <v>2043</v>
+      </c>
+      <c r="AB48">
+        <v>2044</v>
+      </c>
+      <c r="AC48">
+        <v>2045</v>
+      </c>
+      <c r="AD48">
+        <v>2046</v>
+      </c>
+      <c r="AE48">
+        <v>2047</v>
+      </c>
+      <c r="AF48">
+        <v>2048</v>
+      </c>
+      <c r="AG48">
+        <v>2049</v>
+      </c>
+      <c r="AH48">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="17">
+        <f>B16*10^6/B39</f>
+        <v>7.6285534293980226E-5</v>
+      </c>
+      <c r="C49" s="17">
+        <f t="shared" ref="C49:AH49" si="0">C16*10^6/C39</f>
+        <v>4.4592021148960663E-4</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0240330510631465E-3</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1232186193698113E-3</v>
+      </c>
+      <c r="F49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6722153813410986E-3</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0855529246446031E-3</v>
+      </c>
+      <c r="H49" s="17">
+        <f t="shared" si="0"/>
+        <v>2.4680686943245127E-3</v>
+      </c>
+      <c r="I49" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9649516981983606E-3</v>
+      </c>
+      <c r="J49" s="17">
+        <f t="shared" si="0"/>
+        <v>3.3259440749813969E-3</v>
+      </c>
+      <c r="K49" s="17">
+        <f t="shared" si="0"/>
+        <v>3.7316946563221327E-3</v>
+      </c>
+      <c r="L49" s="17">
+        <f t="shared" si="0"/>
+        <v>4.0972357151888988E-3</v>
+      </c>
+      <c r="M49" s="17">
+        <f t="shared" si="0"/>
+        <v>4.5382118527231086E-3</v>
+      </c>
+      <c r="N49" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9430444858439239E-3</v>
+      </c>
+      <c r="O49" s="17">
+        <f t="shared" si="0"/>
+        <v>5.3388096731056987E-3</v>
+      </c>
+      <c r="P49" s="17">
+        <f t="shared" si="0"/>
+        <v>5.6006487354961637E-3</v>
+      </c>
+      <c r="Q49" s="17">
+        <f t="shared" si="0"/>
+        <v>5.9472917601922507E-3</v>
+      </c>
+      <c r="R49" s="17">
+        <f t="shared" si="0"/>
+        <v>6.306193058698159E-3</v>
+      </c>
+      <c r="S49" s="17">
+        <f t="shared" si="0"/>
+        <v>6.6721105480794162E-3</v>
+      </c>
+      <c r="T49" s="17">
+        <f t="shared" si="0"/>
+        <v>6.9954824229820035E-3</v>
+      </c>
+      <c r="U49" s="17">
+        <f t="shared" si="0"/>
+        <v>7.3648239486224986E-3</v>
+      </c>
+      <c r="V49" s="17">
+        <f t="shared" si="0"/>
+        <v>7.7678461161877453E-3</v>
+      </c>
+      <c r="W49" s="17">
+        <f t="shared" si="0"/>
+        <v>8.1224071740683551E-3</v>
+      </c>
+      <c r="X49" s="17">
+        <f t="shared" si="0"/>
+        <v>8.4201833443491511E-3</v>
+      </c>
+      <c r="Y49" s="17">
+        <f t="shared" si="0"/>
+        <v>8.8033733247787349E-3</v>
+      </c>
+      <c r="Z49" s="17">
+        <f t="shared" si="0"/>
+        <v>9.1129307996777181E-3</v>
+      </c>
+      <c r="AA49" s="17">
+        <f t="shared" si="0"/>
+        <v>9.3999098687930563E-3</v>
+      </c>
+      <c r="AB49" s="17">
+        <f t="shared" si="0"/>
+        <v>9.6477282710034206E-3</v>
+      </c>
+      <c r="AC49" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9362231809127129E-3</v>
+      </c>
+      <c r="AD49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0207315196126552E-2</v>
+      </c>
+      <c r="AE49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0452613670021031E-2</v>
+      </c>
+      <c r="AF49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.063292099768148E-2</v>
+      </c>
+      <c r="AG49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0859074490451325E-2</v>
+      </c>
+      <c r="AH49" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1096520897165408E-2</v>
+      </c>
+      <c r="AI49" s="10"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="18">
+        <f>B17*10^6/B42</f>
+        <v>1.9268003145964125E-2</v>
+      </c>
+      <c r="C50" s="18">
+        <f t="shared" ref="C50:AH50" si="1">C17*10^6/C42</f>
+        <v>1.9813733884148119E-2</v>
+      </c>
+      <c r="D50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.1668561841291699E-2</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.1404342349982008E-2</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.1538409684799965E-2</v>
+      </c>
+      <c r="G50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.1921383759349621E-2</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.2374922642942642E-2</v>
+      </c>
+      <c r="I50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.2878993058190637E-2</v>
+      </c>
+      <c r="J50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.3363251508577643E-2</v>
+      </c>
+      <c r="K50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.3896988269309916E-2</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.4353003201506102E-2</v>
+      </c>
+      <c r="M50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.4895566818667666E-2</v>
+      </c>
+      <c r="N50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.5404169658723413E-2</v>
+      </c>
+      <c r="O50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.5931673745787059E-2</v>
+      </c>
+      <c r="P50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.646861288537071E-2</v>
+      </c>
+      <c r="Q50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.7033010886058806E-2</v>
+      </c>
+      <c r="R50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.7546750835601812E-2</v>
+      </c>
+      <c r="S50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.8035611483935553E-2</v>
+      </c>
+      <c r="T50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.8502627826564923E-2</v>
+      </c>
+      <c r="U50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.8960540804454479E-2</v>
+      </c>
+      <c r="V50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.9370648320128225E-2</v>
+      </c>
+      <c r="W50" s="18">
+        <f t="shared" si="1"/>
+        <v>2.9839054444477334E-2</v>
+      </c>
+      <c r="X50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.0272034008040068E-2</v>
+      </c>
+      <c r="Y50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.0712978384435589E-2</v>
+      </c>
+      <c r="Z50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.1162330528714154E-2</v>
+      </c>
+      <c r="AA50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.1602639084140668E-2</v>
+      </c>
+      <c r="AB50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.2021892637917951E-2</v>
+      </c>
+      <c r="AC50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.2375054569273858E-2</v>
+      </c>
+      <c r="AD50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.2808378915273675E-2</v>
+      </c>
+      <c r="AE50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.3217139616382417E-2</v>
+      </c>
+      <c r="AF50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.3595541162862133E-2</v>
+      </c>
+      <c r="AG50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.4009698127227775E-2</v>
+      </c>
+      <c r="AH50" s="18">
+        <f t="shared" si="1"/>
+        <v>3.4393570580530677E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="19">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="20">
+        <v>0</v>
+      </c>
+      <c r="C75" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="21">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C76" s="21">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3CF457-61D7-4974-B7EC-E0F07D0FD370}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -648,12 +8513,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -757,7 +8622,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -861,111 +8726,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B3" cm="1">
+        <f t="array" ref="B3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,B1)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" ref="C3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,C1)</f>
+        <v>3.4374999999997602E-4</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,D1)</f>
+        <v>6.8749999999995204E-4</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,E1)</f>
+        <v>1.0312499999999281E-3</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,F1)</f>
+        <v>1.3749999999999041E-3</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,G1)</f>
+        <v>1.7187499999999911E-3</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,H1)</f>
+        <v>2.0624999999999671E-3</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,I1)</f>
+        <v>2.4062499999999432E-3</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,J1)</f>
+        <v>2.7499999999999192E-3</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,K1)</f>
+        <v>3.0937499999998952E-3</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,L1)</f>
+        <v>3.4374999999999822E-3</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,M1)</f>
+        <v>3.7812499999999583E-3</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,N1)</f>
+        <v>4.1249999999999343E-3</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,O1)</f>
+        <v>4.4687499999999103E-3</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,P1)</f>
+        <v>4.8124999999999973E-3</v>
+      </c>
+      <c r="Q3" cm="1">
+        <f t="array" ref="Q3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,Q1)</f>
+        <v>5.1562499999999734E-3</v>
+      </c>
+      <c r="R3" cm="1">
+        <f t="array" ref="R3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,R1)</f>
+        <v>5.4999999999999494E-3</v>
+      </c>
+      <c r="S3" cm="1">
+        <f t="array" ref="S3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,S1)</f>
+        <v>5.8437499999999254E-3</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,T1)</f>
+        <v>6.1874999999999014E-3</v>
+      </c>
+      <c r="U3" cm="1">
+        <f t="array" ref="U3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,U1)</f>
+        <v>6.5312499999999885E-3</v>
+      </c>
+      <c r="V3" cm="1">
+        <f t="array" ref="V3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,V1)</f>
+        <v>6.8749999999999645E-3</v>
+      </c>
+      <c r="W3" cm="1">
+        <f t="array" ref="W3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,W1)</f>
+        <v>7.2187499999999405E-3</v>
+      </c>
+      <c r="X3" cm="1">
+        <f t="array" ref="X3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,X1)</f>
+        <v>7.5624999999999165E-3</v>
+      </c>
+      <c r="Y3" cm="1">
+        <f t="array" ref="Y3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,Y1)</f>
+        <v>7.9062499999998925E-3</v>
+      </c>
+      <c r="Z3" cm="1">
+        <f t="array" ref="Z3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,Z1)</f>
+        <v>8.2499999999999796E-3</v>
+      </c>
+      <c r="AA3" cm="1">
+        <f t="array" ref="AA3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AA1)</f>
+        <v>8.5937499999999556E-3</v>
+      </c>
+      <c r="AB3" cm="1">
+        <f t="array" ref="AB3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AB1)</f>
+        <v>8.9374999999999316E-3</v>
+      </c>
+      <c r="AC3" cm="1">
+        <f t="array" ref="AC3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AC1)</f>
+        <v>9.2812499999999076E-3</v>
+      </c>
+      <c r="AD3" cm="1">
+        <f t="array" ref="AD3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AD1)</f>
+        <v>9.6249999999999947E-3</v>
+      </c>
+      <c r="AE3" cm="1">
+        <f t="array" ref="AE3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AE1)</f>
+        <v>9.9687499999999707E-3</v>
+      </c>
+      <c r="AF3" cm="1">
+        <f t="array" ref="AF3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AF1)</f>
+        <v>1.0312499999999947E-2</v>
+      </c>
+      <c r="AG3" cm="1">
+        <f t="array" ref="AG3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AG1)</f>
+        <v>1.0656249999999923E-2</v>
+      </c>
+      <c r="AH3" cm="1">
+        <f t="array" ref="AH3">TREND('BAU Calculations'!$B75:$C75,'BAU Calculations'!$B74:$C74,AH1)</f>
+        <v>1.0999999999999899E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1173,111 +9071,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,B1)</f>
+        <v>1.9000000000000017E-2</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" ref="C6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,C1)</f>
+        <v>1.9468750000000035E-2</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,D1)</f>
+        <v>1.9937499999999941E-2</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,E1)</f>
+        <v>2.0406249999999959E-2</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,F1)</f>
+        <v>2.0874999999999977E-2</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,G1)</f>
+        <v>2.1343749999999995E-2</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,H1)</f>
+        <v>2.1812500000000012E-2</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,I1)</f>
+        <v>2.228125000000003E-2</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,J1)</f>
+        <v>2.2749999999999937E-2</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,K1)</f>
+        <v>2.3218749999999955E-2</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,L1)</f>
+        <v>2.3687499999999972E-2</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,M1)</f>
+        <v>2.415624999999999E-2</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,N1)</f>
+        <v>2.4625000000000008E-2</v>
+      </c>
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,O1)</f>
+        <v>2.5093750000000026E-2</v>
+      </c>
+      <c r="P6" cm="1">
+        <f t="array" ref="P6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,P1)</f>
+        <v>2.5562500000000044E-2</v>
+      </c>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,Q1)</f>
+        <v>2.603124999999995E-2</v>
+      </c>
+      <c r="R6" cm="1">
+        <f t="array" ref="R6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,R1)</f>
+        <v>2.6499999999999968E-2</v>
+      </c>
+      <c r="S6" cm="1">
+        <f t="array" ref="S6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,S1)</f>
+        <v>2.6968749999999986E-2</v>
+      </c>
+      <c r="T6" cm="1">
+        <f t="array" ref="T6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,T1)</f>
+        <v>2.7437500000000004E-2</v>
+      </c>
+      <c r="U6" cm="1">
+        <f t="array" ref="U6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,U1)</f>
+        <v>2.7906250000000021E-2</v>
+      </c>
+      <c r="V6" cm="1">
+        <f t="array" ref="V6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,V1)</f>
+        <v>2.8375000000000039E-2</v>
+      </c>
+      <c r="W6" cm="1">
+        <f t="array" ref="W6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,W1)</f>
+        <v>2.8843749999999946E-2</v>
+      </c>
+      <c r="X6" cm="1">
+        <f t="array" ref="X6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,X1)</f>
+        <v>2.9312499999999964E-2</v>
+      </c>
+      <c r="Y6" cm="1">
+        <f t="array" ref="Y6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,Y1)</f>
+        <v>2.9781249999999981E-2</v>
+      </c>
+      <c r="Z6" cm="1">
+        <f t="array" ref="Z6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,Z1)</f>
+        <v>3.0249999999999999E-2</v>
+      </c>
+      <c r="AA6" cm="1">
+        <f t="array" ref="AA6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AA1)</f>
+        <v>3.0718750000000017E-2</v>
+      </c>
+      <c r="AB6" cm="1">
+        <f t="array" ref="AB6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AB1)</f>
+        <v>3.1187500000000035E-2</v>
+      </c>
+      <c r="AC6" cm="1">
+        <f t="array" ref="AC6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AC1)</f>
+        <v>3.1656249999999941E-2</v>
+      </c>
+      <c r="AD6" cm="1">
+        <f t="array" ref="AD6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AD1)</f>
+        <v>3.2124999999999959E-2</v>
+      </c>
+      <c r="AE6" cm="1">
+        <f t="array" ref="AE6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AE1)</f>
+        <v>3.2593749999999977E-2</v>
+      </c>
+      <c r="AF6" cm="1">
+        <f t="array" ref="AF6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AF1)</f>
+        <v>3.3062499999999995E-2</v>
+      </c>
+      <c r="AG6" cm="1">
+        <f t="array" ref="AG6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AG1)</f>
+        <v>3.3531250000000012E-2</v>
+      </c>
+      <c r="AH6" cm="1">
+        <f t="array" ref="AH6">TREND('BAU Calculations'!$B76:$C76,'BAU Calculations'!$B74:$C74,AH1)</f>
+        <v>3.400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\EU\EU-EPS\InputData\ccs\BFoCPAbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6291ED8-88B7-400E-8BC8-8880252CCA87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A75E9-78A6-4B3A-BBC7-9D6873899BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="-16320" windowWidth="18945" windowHeight="11745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="2805" windowWidth="14460" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BFoCPAbS-electricity" sheetId="12" r:id="rId2"/>
     <sheet name="BFoCPAbS-industry" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Source:</t>
   </si>
@@ -108,28 +119,79 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>cement and other carbonates</t>
+    <t>agriculture and forestry 01T03</t>
   </si>
   <si>
-    <t>natural gas and petroleum systems</t>
+    <t>coal mining 05</t>
   </si>
   <si>
-    <t>iron and steel</t>
+    <t>oil and gas extraction 06</t>
   </si>
   <si>
-    <t>chemicals</t>
+    <t>other mining and quarrying 07T08</t>
   </si>
   <si>
-    <t>coal mining</t>
+    <t>food beverage and tobacco 10T12</t>
   </si>
   <si>
-    <t>waste management</t>
+    <t>textiles apparel and leather 13T15</t>
   </si>
   <si>
-    <t>agriculture</t>
+    <t>wood products 16</t>
   </si>
   <si>
-    <t>other industries</t>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
   </si>
 </sst>
 </file>
@@ -548,20 +610,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="103.46484375" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,83 +631,83 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
@@ -664,12 +726,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.796875" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -773,7 +835,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -877,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -981,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1085,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1293,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1501,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1917,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2021,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -2125,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2229,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2333,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2448,18 +2510,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -2560,811 +2620,2629 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
         <v>0</v>
       </c>
     </row>

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\EU\EU-EPS\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\Dropbox (Energy Innovation)\Documents\GitHub\eps-eu\InputData\ccs\BFoCPAbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A75E9-78A6-4B3A-BBC7-9D6873899BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF3DEBB-F2B7-4BC1-8AD1-240B5C4641A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2805" windowWidth="14460" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="320" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BFoCPAbS-electricity" sheetId="12" r:id="rId2"/>
-    <sheet name="BFoCPAbS-industry" sheetId="13" r:id="rId3"/>
+    <sheet name="BFoCPAbS-industry-energyEmis" sheetId="14" r:id="rId3"/>
+    <sheet name="BFoCPAbS-industry-processEmis" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Source:</t>
   </si>
@@ -252,17 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,110 +603,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,15 +700,17 @@
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1">
@@ -835,943 +813,943 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1871,11 +1849,11 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1975,11 +1953,11 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2079,115 +2057,115 @@
       <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AH13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2287,11 +2265,11 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2391,11 +2369,11 @@
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AH16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2495,7 +2473,7 @@
       <c r="AG17">
         <v>0</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AH17">
         <v>0</v>
       </c>
     </row>
@@ -2506,123 +2484,122 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC7CDDB-78A9-4600-8A25-19300F6252BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2E9EE-A913-47B0-A5E9-155F41047FE5}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D1" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E1" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F1" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G1" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H1" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I1" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="J1" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="K1" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="L1" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="M1" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="N1" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="O1" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="P1" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q1" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="R1" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="S1" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="T1" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="U1" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="V1" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="W1" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="X1" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="Y1" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="Z1" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AA1" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AB1" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AC1" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AD1" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AE1" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AF1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AG1" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2717,13 +2694,10 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2818,13 +2792,10 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2919,13 +2890,10 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3020,13 +2988,10 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3121,13 +3086,10 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3222,13 +3184,10 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3323,13 +3282,10 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3424,13 +3380,10 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3525,13 +3478,10 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3626,13 +3576,10 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3727,13 +3674,10 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3828,13 +3772,10 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3929,13 +3870,10 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4030,13 +3968,10 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4131,13 +4066,10 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4232,13 +4164,10 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4333,13 +4262,10 @@
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4434,13 +4360,10 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4535,13 +4458,10 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4636,13 +4556,10 @@
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4737,13 +4654,10 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4838,13 +4752,10 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4939,13 +4850,10 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5040,13 +4948,10 @@
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5139,114 +5044,2581 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A6B7B-D93A-4344-B9E1-F3EDADE4CF52}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AF26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>